--- a/data/trans_orig/P1422-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P1422-Edad-trans_orig.xlsx
@@ -915,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>5186</v>
+        <v>5196</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.001498452226601014</v>
@@ -924,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.0075480223645402</v>
+        <v>0.007562621357615242</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>0</v>
@@ -949,7 +949,7 @@
         <v>0</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>5494</v>
+        <v>5174</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.0007935970227985087</v>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.004234565802276379</v>
+        <v>0.003988005769030824</v>
       </c>
     </row>
     <row r="8">
@@ -975,7 +975,7 @@
         <v>686057</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>681901</v>
+        <v>681891</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>687087</v>
@@ -984,7 +984,7 @@
         <v>0.9985015477733989</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9924519776354598</v>
+        <v>0.9924373786423848</v>
       </c>
       <c r="I8" s="6" t="n">
         <v>1</v>
@@ -1009,7 +1009,7 @@
         <v>1296312</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1291848</v>
+        <v>1292168</v>
       </c>
       <c r="T8" s="5" t="n">
         <v>1297342</v>
@@ -1018,7 +1018,7 @@
         <v>0.9992064029772015</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9957654341977213</v>
+        <v>0.9960119942309692</v>
       </c>
       <c r="W8" s="6" t="n">
         <v>1</v>
@@ -1113,19 +1113,19 @@
         <v>7810</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2977</v>
+        <v>3130</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>17398</v>
+        <v>17259</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01145419311351889</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.004365664574463675</v>
+        <v>0.004591046161511395</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02551507739757254</v>
+        <v>0.02531176137122446</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>0</v>
@@ -1147,19 +1147,19 @@
         <v>7810</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>2967</v>
+        <v>3721</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>16677</v>
+        <v>15908</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.005613036771120069</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.002132438296370565</v>
+        <v>0.002673953383730099</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01198516819481276</v>
+        <v>0.01143276442077436</v>
       </c>
     </row>
     <row r="11">
@@ -1176,19 +1176,19 @@
         <v>674053</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>664465</v>
+        <v>664604</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>678886</v>
+        <v>678733</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9885458068864811</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9744849226024277</v>
+        <v>0.9746882386287754</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9956343354255364</v>
+        <v>0.9954089538384886</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>666</v>
@@ -1210,19 +1210,19 @@
         <v>1383627</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1374760</v>
+        <v>1375529</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1388470</v>
+        <v>1387716</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.99438696322888</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9880148318051872</v>
+        <v>0.9885672355792254</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9978675617036294</v>
+        <v>0.9973260466162699</v>
       </c>
     </row>
     <row r="12">
@@ -1314,19 +1314,19 @@
         <v>4029</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1019</v>
+        <v>1039</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>9607</v>
+        <v>9842</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.006554541059999199</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.001658613123294661</v>
+        <v>0.001691012523819105</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01563018419962213</v>
+        <v>0.01601322109943793</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>6</v>
@@ -1335,19 +1335,19 @@
         <v>6115</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>2124</v>
+        <v>2061</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>12420</v>
+        <v>11828</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.009955082368527806</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.003458176542178872</v>
+        <v>0.003354590985488715</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.02021870561035272</v>
+        <v>0.01925587295318367</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>10</v>
@@ -1356,19 +1356,19 @@
         <v>10144</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>5015</v>
+        <v>4986</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>18053</v>
+        <v>17554</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.008254323543453826</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.004080604550617697</v>
+        <v>0.004056986078610811</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01469039644681681</v>
+        <v>0.01428478264511761</v>
       </c>
     </row>
     <row r="14">
@@ -1385,19 +1385,19 @@
         <v>610588</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>605010</v>
+        <v>604775</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>613598</v>
+        <v>613578</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9934454589400008</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9843698158003779</v>
+        <v>0.9839867789005622</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9983413868767054</v>
+        <v>0.9983089874761809</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>532</v>
@@ -1406,19 +1406,19 @@
         <v>608149</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>601844</v>
+        <v>602436</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>612140</v>
+        <v>612203</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9900449176314722</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9797812943896472</v>
+        <v>0.9807441270468155</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9965418234578212</v>
+        <v>0.9966454090145113</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1076</v>
@@ -1427,19 +1427,19 @@
         <v>1218736</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1210827</v>
+        <v>1211326</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1223865</v>
+        <v>1223894</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9917456764565462</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9853096035531829</v>
+        <v>0.9857152173548822</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9959193954493822</v>
+        <v>0.9959430139213892</v>
       </c>
     </row>
     <row r="15">
@@ -1534,7 +1534,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>6170</v>
+        <v>6594</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.00467192929143436</v>
@@ -1543,7 +1543,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01436800973999589</v>
+        <v>0.01535621700540993</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1</v>
@@ -1555,7 +1555,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>4695</v>
+        <v>4791</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.002107597894560225</v>
@@ -1564,7 +1564,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.01048439104931162</v>
+        <v>0.01069805138195089</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>3</v>
@@ -1573,19 +1573,19 @@
         <v>2950</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>937</v>
+        <v>941</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>7862</v>
+        <v>7884</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.003362912614898824</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.001068486146846271</v>
+        <v>0.001072669051643772</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.008962703850494986</v>
+        <v>0.008986872086453164</v>
       </c>
     </row>
     <row r="17">
@@ -1602,7 +1602,7 @@
         <v>427423</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>423259</v>
+        <v>422835</v>
       </c>
       <c r="F17" s="5" t="n">
         <v>429429</v>
@@ -1611,7 +1611,7 @@
         <v>0.9953280707085657</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9856319902600046</v>
+        <v>0.9846437829945903</v>
       </c>
       <c r="I17" s="6" t="n">
         <v>1</v>
@@ -1623,7 +1623,7 @@
         <v>446856</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>443105</v>
+        <v>443009</v>
       </c>
       <c r="M17" s="5" t="n">
         <v>447800</v>
@@ -1632,7 +1632,7 @@
         <v>0.9978924021054397</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9895156089506882</v>
+        <v>0.9893019486180491</v>
       </c>
       <c r="P17" s="6" t="n">
         <v>1</v>
@@ -1644,19 +1644,19 @@
         <v>874279</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>869367</v>
+        <v>869345</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>876292</v>
+        <v>876288</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9966370873851012</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9910372961495052</v>
+        <v>0.9910131279135469</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9989315138531537</v>
+        <v>0.9989273309483563</v>
       </c>
     </row>
     <row r="18">
@@ -1748,19 +1748,19 @@
         <v>5881</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>2011</v>
+        <v>1976</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>12024</v>
+        <v>11692</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01898338439446999</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.006490222176193336</v>
+        <v>0.006378306719423765</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.03881235065007986</v>
+        <v>0.03774309295074359</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>6</v>
@@ -1769,19 +1769,19 @@
         <v>6167</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>2064</v>
+        <v>3017</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>12222</v>
+        <v>12493</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.01742237310862389</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.005831162785851094</v>
+        <v>0.008522207061158769</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.03452710559475988</v>
+        <v>0.0352903196475735</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>12</v>
@@ -1790,19 +1790,19 @@
         <v>12048</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>6892</v>
+        <v>6197</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>21725</v>
+        <v>20805</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.0181508948129832</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01038302511706889</v>
+        <v>0.009335895916363831</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.03272842676635888</v>
+        <v>0.03134314833096526</v>
       </c>
     </row>
     <row r="20">
@@ -1819,19 +1819,19 @@
         <v>303905</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>297762</v>
+        <v>298094</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>307775</v>
+        <v>307810</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.98101661560553</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9611876493499206</v>
+        <v>0.9622569070492564</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9935097778238068</v>
+        <v>0.9936216932805761</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>338</v>
@@ -1840,19 +1840,19 @@
         <v>347829</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>341774</v>
+        <v>341503</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>351932</v>
+        <v>350979</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9825776268913761</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.96547289440524</v>
+        <v>0.9647096803524264</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9941688372141488</v>
+        <v>0.9914777929388412</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>614</v>
@@ -1861,19 +1861,19 @@
         <v>651734</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>642057</v>
+        <v>642977</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>656890</v>
+        <v>657585</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9818491051870168</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9672715732336393</v>
+        <v>0.9686568516690345</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9896169748829311</v>
+        <v>0.9906641040836361</v>
       </c>
     </row>
     <row r="21">
@@ -1965,19 +1965,19 @@
         <v>12867</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>6396</v>
+        <v>6335</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>22719</v>
+        <v>23636</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.05149782651635459</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.02559844332744999</v>
+        <v>0.02535462101716902</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.09092943236784255</v>
+        <v>0.09460128792206808</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>11</v>
@@ -1986,19 +1986,19 @@
         <v>12153</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>6344</v>
+        <v>5728</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>21317</v>
+        <v>20521</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.03124238884157306</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01630982083223431</v>
+        <v>0.01472546814758126</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.05480243217994304</v>
+        <v>0.05275613947439289</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>21</v>
@@ -2007,19 +2007,19 @@
         <v>25019</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>16322</v>
+        <v>15916</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>38464</v>
+        <v>38134</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.03916443315642634</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.02554910839833851</v>
+        <v>0.02491425813200307</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.06020947789341245</v>
+        <v>0.05969427298699785</v>
       </c>
     </row>
     <row r="23">
@@ -2036,19 +2036,19 @@
         <v>236984</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>227132</v>
+        <v>226215</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>243455</v>
+        <v>243516</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9485021734836454</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9090705676321577</v>
+        <v>0.905398712077932</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.97440155667255</v>
+        <v>0.9746453789828311</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>339</v>
@@ -2057,19 +2057,19 @@
         <v>376826</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>367662</v>
+        <v>368458</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>382635</v>
+        <v>383251</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.968757611158427</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9451975678200556</v>
+        <v>0.9472438605256071</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9836901791677656</v>
+        <v>0.9852745318524188</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>551</v>
@@ -2078,19 +2078,19 @@
         <v>613811</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>600366</v>
+        <v>600696</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>622508</v>
+        <v>622914</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9608355668435736</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9397905221065876</v>
+        <v>0.9403057270130021</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9744508916016615</v>
+        <v>0.9750857418679969</v>
       </c>
     </row>
     <row r="24">
@@ -2182,19 +2182,19 @@
         <v>33622</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>22793</v>
+        <v>22002</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>48432</v>
+        <v>48575</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.009811579185572702</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.006651291581707361</v>
+        <v>0.00642069125283814</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.01413342825751105</v>
+        <v>0.01417503574214527</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>24</v>
@@ -2203,19 +2203,19 @@
         <v>25379</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>15794</v>
+        <v>16944</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>36909</v>
+        <v>38077</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.00713873698309214</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.004442681543968316</v>
+        <v>0.004766138290239293</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.01038196422814025</v>
+        <v>0.01071049260914045</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>54</v>
@@ -2224,19 +2224,19 @@
         <v>59001</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>43361</v>
+        <v>45530</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>77487</v>
+        <v>78127</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.008450596066418143</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.006210465108597622</v>
+        <v>0.006521217255817376</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.0110983116935818</v>
+        <v>0.01118995083157292</v>
       </c>
     </row>
     <row r="26">
@@ -2253,19 +2253,19 @@
         <v>3393157</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3378347</v>
+        <v>3378204</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3403986</v>
+        <v>3404777</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9901884208144273</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9858665717424889</v>
+        <v>0.9858249642578553</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9933487084182927</v>
+        <v>0.9935793087471619</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>3272</v>
@@ -2274,19 +2274,19 @@
         <v>3529719</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3518189</v>
+        <v>3517021</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3539304</v>
+        <v>3538154</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9928612630169079</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9896180357718597</v>
+        <v>0.9892895073908594</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9955573184560315</v>
+        <v>0.9952338617097607</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>6451</v>
@@ -2295,19 +2295,19 @@
         <v>6922876</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6904390</v>
+        <v>6903750</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6938516</v>
+        <v>6936347</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9915494039335818</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9889016883064179</v>
+        <v>0.9888100491684271</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9937895348914021</v>
+        <v>0.9934787827441826</v>
       </c>
     </row>
     <row r="27">
@@ -2814,7 +2814,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>4588</v>
+        <v>5855</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.001647243577419393</v>
@@ -2823,7 +2823,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.007769256621305416</v>
+        <v>0.009914818800712507</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>0</v>
@@ -2848,7 +2848,7 @@
         <v>0</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>5862</v>
+        <v>5841</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.0008428574580136324</v>
@@ -2857,7 +2857,7 @@
         <v>0</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.005079284854216767</v>
+        <v>0.005061713317219102</v>
       </c>
     </row>
     <row r="8">
@@ -2874,7 +2874,7 @@
         <v>589523</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>585908</v>
+        <v>584641</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>590496</v>
@@ -2883,7 +2883,7 @@
         <v>0.9983527564225806</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9922307433786941</v>
+        <v>0.9900851811992875</v>
       </c>
       <c r="I8" s="6" t="n">
         <v>1</v>
@@ -2908,7 +2908,7 @@
         <v>1153067</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1148178</v>
+        <v>1148199</v>
       </c>
       <c r="T8" s="5" t="n">
         <v>1154040</v>
@@ -2917,7 +2917,7 @@
         <v>0.9991571425419864</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9949207151457832</v>
+        <v>0.9949382866827808</v>
       </c>
       <c r="W8" s="6" t="n">
         <v>1</v>
@@ -3015,7 +3015,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>6112</v>
+        <v>5530</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.00275942020265169</v>
@@ -3024,7 +3024,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.009134160579132331</v>
+        <v>0.008264976113835741</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>0</v>
@@ -3049,7 +3049,7 @@
         <v>0</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>5651</v>
+        <v>6482</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.001387705793317418</v>
@@ -3058,7 +3058,7 @@
         <v>0</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.004247473203031471</v>
+        <v>0.004871763390783612</v>
       </c>
     </row>
     <row r="11">
@@ -3075,7 +3075,7 @@
         <v>667251</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>662985</v>
+        <v>663567</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>669097</v>
@@ -3084,7 +3084,7 @@
         <v>0.9972405797973483</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9908658394208664</v>
+        <v>0.9917350238861642</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>1</v>
@@ -3109,7 +3109,7 @@
         <v>1328637</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1324832</v>
+        <v>1324001</v>
       </c>
       <c r="T11" s="5" t="n">
         <v>1330483</v>
@@ -3118,7 +3118,7 @@
         <v>0.9986122942066826</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9957525267969685</v>
+        <v>0.9951282366092166</v>
       </c>
       <c r="W11" s="6" t="n">
         <v>1</v>
@@ -3213,19 +3213,19 @@
         <v>4942</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1914</v>
+        <v>1902</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>11004</v>
+        <v>11554</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.007649518336286712</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.002962034323068657</v>
+        <v>0.002944071822188516</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01703240281751769</v>
+        <v>0.01788374027861193</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>2</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>6342</v>
+        <v>6367</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.00320715329434769</v>
@@ -3246,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.009770965474149006</v>
+        <v>0.009809484226471243</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>7</v>
@@ -3255,19 +3255,19 @@
         <v>7024</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>2991</v>
+        <v>2952</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>13248</v>
+        <v>13988</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.005423141596331327</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.002309582455540272</v>
+        <v>0.00227915730360074</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.0102293076242717</v>
+        <v>0.01080068295377763</v>
       </c>
     </row>
     <row r="14">
@@ -3284,19 +3284,19 @@
         <v>641106</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>635044</v>
+        <v>634494</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>644134</v>
+        <v>644146</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9923504816637133</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9829675971824823</v>
+        <v>0.9821162597213873</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9970379656769314</v>
+        <v>0.9970559281778115</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>600</v>
@@ -3305,7 +3305,7 @@
         <v>646995</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>642735</v>
+        <v>642710</v>
       </c>
       <c r="M14" s="5" t="n">
         <v>649077</v>
@@ -3314,7 +3314,7 @@
         <v>0.9967928467056523</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.990229034525851</v>
+        <v>0.9901905157735288</v>
       </c>
       <c r="P14" s="6" t="n">
         <v>1</v>
@@ -3326,19 +3326,19 @@
         <v>1288101</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1281877</v>
+        <v>1281137</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1292134</v>
+        <v>1292173</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9945768584036687</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9897706923757281</v>
+        <v>0.9891993170462223</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9976904175444596</v>
+        <v>0.9977208426963993</v>
       </c>
     </row>
     <row r="15">
@@ -3433,7 +3433,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>8031</v>
+        <v>8190</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.004778815281030091</v>
@@ -3442,7 +3442,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01680471147216795</v>
+        <v>0.0171362602186699</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2</v>
@@ -3454,7 +3454,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>7341</v>
+        <v>7424</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.004222973515709007</v>
@@ -3463,7 +3463,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.01477549479728927</v>
+        <v>0.01494315083623095</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>4</v>
@@ -3472,19 +3472,19 @@
         <v>4382</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1143</v>
+        <v>1054</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>10070</v>
+        <v>10004</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.004495496881793204</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.001172438491522758</v>
+        <v>0.0010810033298698</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01033099780058479</v>
+        <v>0.01026290116182201</v>
       </c>
     </row>
     <row r="17">
@@ -3501,7 +3501,7 @@
         <v>475634</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>469887</v>
+        <v>469728</v>
       </c>
       <c r="F17" s="5" t="n">
         <v>477918</v>
@@ -3510,7 +3510,7 @@
         <v>0.9952211847189699</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9831952885278321</v>
+        <v>0.9828637397813269</v>
       </c>
       <c r="I17" s="6" t="n">
         <v>1</v>
@@ -3522,7 +3522,7 @@
         <v>494751</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>489508</v>
+        <v>489425</v>
       </c>
       <c r="M17" s="5" t="n">
         <v>496849</v>
@@ -3531,7 +3531,7 @@
         <v>0.995777026484291</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9852245052027107</v>
+        <v>0.985056849163769</v>
       </c>
       <c r="P17" s="6" t="n">
         <v>1</v>
@@ -3543,19 +3543,19 @@
         <v>970385</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>964697</v>
+        <v>964763</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>973624</v>
+        <v>973713</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9955045031182068</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9896690021994152</v>
+        <v>0.989737098838178</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9988275615084772</v>
+        <v>0.9989189966701302</v>
       </c>
     </row>
     <row r="18">
@@ -3647,19 +3647,19 @@
         <v>6619</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>2732</v>
+        <v>2746</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>14138</v>
+        <v>14683</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.0197967866480775</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.008170241817765534</v>
+        <v>0.008212394577563687</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.04228715876415626</v>
+        <v>0.04391644330665521</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>6</v>
@@ -3668,19 +3668,19 @@
         <v>7079</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>2833</v>
+        <v>2817</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>15002</v>
+        <v>14780</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.01873973004944658</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.007498894649644613</v>
+        <v>0.007456601048788604</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.03971397484218912</v>
+        <v>0.0391263142376486</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>12</v>
@@ -3689,19 +3689,19 @@
         <v>13698</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>7686</v>
+        <v>7055</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>23824</v>
+        <v>23328</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01923602228527248</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.0107928643763927</v>
+        <v>0.009907659387321877</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.03345612720257454</v>
+        <v>0.03276001981100358</v>
       </c>
     </row>
     <row r="20">
@@ -3718,19 +3718,19 @@
         <v>327711</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>320192</v>
+        <v>319647</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>331598</v>
+        <v>331584</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9802032133519225</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9577128412358438</v>
+        <v>0.9560835566933449</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9918297581822345</v>
+        <v>0.9917876054224364</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>348</v>
@@ -3739,19 +3739,19 @@
         <v>370683</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>362760</v>
+        <v>362982</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>374929</v>
+        <v>374945</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9812602699505534</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9602860251578107</v>
+        <v>0.9608736857623523</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9925011053503554</v>
+        <v>0.9925433989512114</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>667</v>
@@ -3760,19 +3760,19 @@
         <v>698394</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>688268</v>
+        <v>688764</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>704406</v>
+        <v>705037</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9807639777147276</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9665438727974255</v>
+        <v>0.9672399801889967</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9892071356236073</v>
+        <v>0.9900923406126781</v>
       </c>
     </row>
     <row r="21">
@@ -3864,19 +3864,19 @@
         <v>4905</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1730</v>
+        <v>2351</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>9947</v>
+        <v>9785</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01908430800065305</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.006730199027117702</v>
+        <v>0.009148330918596381</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.03870305681130271</v>
+        <v>0.03807518267853181</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>7</v>
@@ -3885,19 +3885,19 @@
         <v>9541</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>3802</v>
+        <v>4449</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>18222</v>
+        <v>19662</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.02384185210600552</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.009500508602585731</v>
+        <v>0.01111768008424032</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.04553580179519767</v>
+        <v>0.04913461858403072</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>13</v>
@@ -3906,19 +3906,19 @@
         <v>14445</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>7956</v>
+        <v>7845</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>25026</v>
+        <v>23959</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.02198132148877729</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01210655657048731</v>
+        <v>0.01193725821693482</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.03808187330720404</v>
+        <v>0.03645857532914923</v>
       </c>
     </row>
     <row r="23">
@@ -3935,19 +3935,19 @@
         <v>252093</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>247051</v>
+        <v>247213</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>255268</v>
+        <v>254647</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9809156919993469</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9612969431886972</v>
+        <v>0.9619248173214681</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9932698009728822</v>
+        <v>0.9908516690814037</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>294</v>
@@ -3956,19 +3956,19 @@
         <v>390628</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>381947</v>
+        <v>380507</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>396367</v>
+        <v>395720</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9761581478939945</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9544641982048023</v>
+        <v>0.9508653814159694</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9904994913974142</v>
+        <v>0.9888823199157597</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>590</v>
@@ -3977,19 +3977,19 @@
         <v>642722</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>632141</v>
+        <v>633208</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>649211</v>
+        <v>649322</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9780186785112227</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.961918126692796</v>
+        <v>0.9635414246708508</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9878934434295127</v>
+        <v>0.9880627417830652</v>
       </c>
     </row>
     <row r="24">
@@ -4081,19 +4081,19 @@
         <v>21568</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>13572</v>
+        <v>13651</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>31823</v>
+        <v>31822</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.006354128810399229</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.003998457391142097</v>
+        <v>0.004021652876140054</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.009375302270314204</v>
+        <v>0.009375123287530464</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>17</v>
@@ -4102,19 +4102,19 @@
         <v>20800</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>12264</v>
+        <v>11970</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>33268</v>
+        <v>32621</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.005868119955260486</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.003459998997012412</v>
+        <v>0.003376992085204773</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.009385772421166947</v>
+        <v>0.00920330434604541</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>39</v>
@@ -4123,19 +4123,19 @@
         <v>42368</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>30531</v>
+        <v>30274</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>59285</v>
+        <v>57613</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.006105864575420084</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.004399922747766326</v>
+        <v>0.004363014154180438</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.008543812726676642</v>
+        <v>0.008302921142464332</v>
       </c>
     </row>
     <row r="26">
@@ -4152,19 +4152,19 @@
         <v>3372782</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3362527</v>
+        <v>3362528</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3380778</v>
+        <v>3380699</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9936458711896008</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.990624697729686</v>
+        <v>0.9906248767124696</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.996001542608858</v>
+        <v>0.99597834712386</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>3321</v>
@@ -4173,19 +4173,19 @@
         <v>3523742</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3511274</v>
+        <v>3511921</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3532278</v>
+        <v>3532572</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9941318800447395</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9906142275788331</v>
+        <v>0.9907966956539552</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9965400010029876</v>
+        <v>0.9966230079147952</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>6530</v>
@@ -4194,19 +4194,19 @@
         <v>6896524</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6879607</v>
+        <v>6881279</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6908361</v>
+        <v>6908618</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9938941354245799</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9914561872733237</v>
+        <v>0.9916970788575354</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9956000772522341</v>
+        <v>0.9956369858458195</v>
       </c>
     </row>
     <row r="27">
@@ -4557,7 +4557,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>6928</v>
+        <v>6701</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.003684826220420322</v>
@@ -4566,7 +4566,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01911113669915539</v>
+        <v>0.01848481551714539</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1</v>
@@ -4578,7 +4578,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>6800</v>
+        <v>8026</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.001734109950378848</v>
@@ -4587,7 +4587,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.008827479422297575</v>
+        <v>0.01041897749660678</v>
       </c>
     </row>
     <row r="5">
@@ -4617,7 +4617,7 @@
         <v>361176</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>355584</v>
+        <v>355811</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>362512</v>
@@ -4626,7 +4626,7 @@
         <v>0.9963151737795797</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9808888633008451</v>
+        <v>0.9815151844828547</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>1</v>
@@ -4638,16 +4638,16 @@
         <v>768969</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>763505</v>
+        <v>762279</v>
       </c>
       <c r="T5" s="5" t="n">
         <v>770305</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9982658900496213</v>
+        <v>0.9982658900496212</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9911725205777026</v>
+        <v>0.9895810225033932</v>
       </c>
       <c r="W5" s="6" t="n">
         <v>1</v>
@@ -4745,7 +4745,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>6204</v>
+        <v>7712</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.002861599088971093</v>
@@ -4754,7 +4754,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01300961784407642</v>
+        <v>0.0161713415154149</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>1</v>
@@ -4766,7 +4766,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>4786</v>
+        <v>4854</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.001889676430780036</v>
@@ -4775,7 +4775,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.009551055322565592</v>
+        <v>0.009688004684553973</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>2</v>
@@ -4787,7 +4787,7 @@
         <v>0</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>7456</v>
+        <v>7429</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.002363616187625003</v>
@@ -4796,7 +4796,7 @@
         <v>0</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.007623652554874741</v>
+        <v>0.007596555351215491</v>
       </c>
     </row>
     <row r="8">
@@ -4813,7 +4813,7 @@
         <v>475525</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>470686</v>
+        <v>469178</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>476890</v>
@@ -4822,7 +4822,7 @@
         <v>0.9971384009110289</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9869903821559227</v>
+        <v>0.983828658484584</v>
       </c>
       <c r="I8" s="6" t="n">
         <v>1</v>
@@ -4834,16 +4834,16 @@
         <v>500136</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>496297</v>
+        <v>496229</v>
       </c>
       <c r="M8" s="5" t="n">
         <v>501083</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.9981103235692198</v>
+        <v>0.9981103235692199</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9904489446774343</v>
+        <v>0.9903119953154459</v>
       </c>
       <c r="P8" s="6" t="n">
         <v>1</v>
@@ -4855,16 +4855,16 @@
         <v>975661</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>970517</v>
+        <v>970544</v>
       </c>
       <c r="T8" s="5" t="n">
         <v>977973</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9976363838123751</v>
+        <v>0.997636383812375</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9923763474451253</v>
+        <v>0.9924034446487845</v>
       </c>
       <c r="W8" s="6" t="n">
         <v>1</v>
@@ -4962,7 +4962,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>4146</v>
+        <v>3947</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.001333113308838044</v>
@@ -4971,7 +4971,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.006678325803543834</v>
+        <v>0.00635730063186437</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>3</v>
@@ -4980,19 +4980,19 @@
         <v>2097</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>550</v>
+        <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>6102</v>
+        <v>5761</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.00337457696537381</v>
+        <v>0.003374576965373811</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.0008851987058479284</v>
+        <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.009818614883122485</v>
+        <v>0.009270094580688986</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>4</v>
@@ -5001,19 +5001,19 @@
         <v>2925</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>803</v>
+        <v>824</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>7875</v>
+        <v>6698</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.002354380301960148</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0006462558851412295</v>
+        <v>0.0006629574774400562</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.00633907116615281</v>
+        <v>0.005391729897330545</v>
       </c>
     </row>
     <row r="11">
@@ -5030,7 +5030,7 @@
         <v>620009</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>616691</v>
+        <v>616890</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>620837</v>
@@ -5039,7 +5039,7 @@
         <v>0.998666886691162</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9933216741964561</v>
+        <v>0.9936426993681358</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>1</v>
@@ -5051,19 +5051,19 @@
         <v>619391</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>615386</v>
+        <v>615727</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>620938</v>
+        <v>621488</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9966254230346262</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9901813851168777</v>
+        <v>0.9907299054193113</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9991148012941521</v>
+        <v>1</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1387</v>
@@ -5072,19 +5072,19 @@
         <v>1239400</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1234450</v>
+        <v>1235627</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1241522</v>
+        <v>1241501</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9976456196980399</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9936609288338495</v>
+        <v>0.9946082701026693</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9993537441148588</v>
+        <v>0.9993370425225599</v>
       </c>
     </row>
     <row r="12">
@@ -5176,19 +5176,19 @@
         <v>6222</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>2268</v>
+        <v>2299</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>13157</v>
+        <v>13277</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.008880308096276796</v>
+        <v>0.008880308096276794</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.003236917917148734</v>
+        <v>0.00328178301560761</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01877887995324846</v>
+        <v>0.01895083629661721</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>7</v>
@@ -5197,19 +5197,19 @@
         <v>3911</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1613</v>
+        <v>1644</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>7643</v>
+        <v>8125</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.005309950546811949</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.002190056205933391</v>
+        <v>0.002232200416449628</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.01037794156901683</v>
+        <v>0.01103185941322535</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>13</v>
@@ -5218,19 +5218,19 @@
         <v>10132</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>5377</v>
+        <v>5539</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>17352</v>
+        <v>18146</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.007050561914042468</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.003741222269924501</v>
+        <v>0.003854123136609512</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01207428499951997</v>
+        <v>0.01262698421873288</v>
       </c>
     </row>
     <row r="14">
@@ -5247,19 +5247,19 @@
         <v>694395</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>687460</v>
+        <v>687340</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>698349</v>
+        <v>698318</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9911196919037233</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9812211200467503</v>
+        <v>0.9810491637033832</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9967630820828511</v>
+        <v>0.9967182169843926</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1133</v>
@@ -5268,19 +5268,19 @@
         <v>732584</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>728852</v>
+        <v>728370</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>734882</v>
+        <v>734851</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.994690049453188</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9896220584309831</v>
+        <v>0.9889681405867746</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9978099437940665</v>
+        <v>0.99776779958355</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1792</v>
@@ -5289,19 +5289,19 @@
         <v>1426980</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1419760</v>
+        <v>1418966</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1431735</v>
+        <v>1431573</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9929494380859576</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.98792571500048</v>
+        <v>0.9873730157812676</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9962587777300755</v>
+        <v>0.9961458768633906</v>
       </c>
     </row>
     <row r="15">
@@ -5393,19 +5393,19 @@
         <v>15093</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>8901</v>
+        <v>8158</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>23402</v>
+        <v>23283</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02480976425296734</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01463041620394814</v>
+        <v>0.01341060878061665</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03846767527378246</v>
+        <v>0.03827102895710805</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>15</v>
@@ -5414,19 +5414,19 @@
         <v>9741</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>5789</v>
+        <v>5276</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>15399</v>
+        <v>15156</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.01607197031782884</v>
+        <v>0.01607197031782885</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.009551548645037376</v>
+        <v>0.008705796718718756</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02540865355727187</v>
+        <v>0.02500822805056643</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>32</v>
@@ -5435,19 +5435,19 @@
         <v>24834</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>17082</v>
+        <v>17281</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>33858</v>
+        <v>35624</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.02044914597239781</v>
+        <v>0.02044914597239782</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01406604273369556</v>
+        <v>0.01422947443522635</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02788035156947008</v>
+        <v>0.02933426775211557</v>
       </c>
     </row>
     <row r="17">
@@ -5464,19 +5464,19 @@
         <v>593266</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>584957</v>
+        <v>585076</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>599458</v>
+        <v>600201</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9751902357470329</v>
+        <v>0.9751902357470328</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9615323247262176</v>
+        <v>0.961728971042892</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9853695837960518</v>
+        <v>0.9865893912193835</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>983</v>
@@ -5485,19 +5485,19 @@
         <v>596317</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>590659</v>
+        <v>590902</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>600269</v>
+        <v>600782</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.983928029682171</v>
+        <v>0.9839280296821712</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9745913464427287</v>
+        <v>0.9749917719494335</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9904484513549626</v>
+        <v>0.9912942032812811</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1628</v>
@@ -5506,19 +5506,19 @@
         <v>1189583</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1180559</v>
+        <v>1178793</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1197335</v>
+        <v>1197136</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9795508540276022</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9721196484305303</v>
+        <v>0.9706657322478844</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9859339572663046</v>
+        <v>0.9857705255647737</v>
       </c>
     </row>
     <row r="18">
@@ -5610,19 +5610,19 @@
         <v>7029</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>3560</v>
+        <v>3736</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>11958</v>
+        <v>12053</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01738325065893553</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.00880518211776931</v>
+        <v>0.009239859873119639</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.02957178979381747</v>
+        <v>0.02980695935979641</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>15</v>
@@ -5631,19 +5631,19 @@
         <v>7894</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>4648</v>
+        <v>4603</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>12942</v>
+        <v>13232</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.01797539937521972</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01058454434384473</v>
+        <v>0.01048055463356214</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.02946893636399499</v>
+        <v>0.03012917511047823</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>26</v>
@@ -5652,19 +5652,19 @@
         <v>14923</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>10107</v>
+        <v>9591</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>21971</v>
+        <v>21554</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01769154079707419</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01198209171225913</v>
+        <v>0.01136989869116713</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.02604668112744894</v>
+        <v>0.02555269995558261</v>
       </c>
     </row>
     <row r="20">
@@ -5681,19 +5681,19 @@
         <v>397334</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>392405</v>
+        <v>392310</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>400803</v>
+        <v>400627</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9826167493410645</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9704282102061823</v>
+        <v>0.9701930406402036</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9911948178822304</v>
+        <v>0.9907601401268803</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>812</v>
@@ -5702,19 +5702,19 @@
         <v>431272</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>426224</v>
+        <v>425934</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>434518</v>
+        <v>434563</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9820246006247803</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9705310636360049</v>
+        <v>0.9698708248895218</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9894154556561553</v>
+        <v>0.9895194453664379</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1368</v>
@@ -5723,19 +5723,19 @@
         <v>828606</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>821558</v>
+        <v>821975</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>833422</v>
+        <v>833938</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.9823084592029258</v>
+        <v>0.9823084592029259</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9739533188725511</v>
+        <v>0.9744473000444185</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9880179082877409</v>
+        <v>0.9886301013088332</v>
       </c>
     </row>
     <row r="21">
@@ -5827,19 +5827,19 @@
         <v>14302</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>8715</v>
+        <v>9310</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>21500</v>
+        <v>21558</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.04610510922799979</v>
+        <v>0.0461051092279998</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.0280957656179691</v>
+        <v>0.03001343644302065</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.06931183407247864</v>
+        <v>0.06949595406429659</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>25</v>
@@ -5848,19 +5848,19 @@
         <v>12735</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>8605</v>
+        <v>8421</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>19768</v>
+        <v>19135</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.02745040567569082</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01854766938447459</v>
+        <v>0.01815037200300261</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.04260882663541034</v>
+        <v>0.04124543875610261</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>48</v>
@@ -5869,19 +5869,19 @@
         <v>27037</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>20156</v>
+        <v>19746</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>35931</v>
+        <v>35810</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.03492538672926965</v>
+        <v>0.03492538672926964</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.02603673205231146</v>
+        <v>0.02550716177167643</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.04641395668128648</v>
+        <v>0.04625763479261367</v>
       </c>
     </row>
     <row r="23">
@@ -5898,19 +5898,19 @@
         <v>295896</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>288698</v>
+        <v>288640</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>301483</v>
+        <v>300888</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9538948907720001</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9306881659275212</v>
+        <v>0.9305040459357037</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9719042343820307</v>
+        <v>0.9699865635569795</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>855</v>
@@ -5919,19 +5919,19 @@
         <v>451203</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>444170</v>
+        <v>444803</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>455333</v>
+        <v>455517</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.9725495943243091</v>
+        <v>0.972549594324309</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9573911733645897</v>
+        <v>0.9587545612438974</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9814523306155256</v>
+        <v>0.9818496279969975</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1290</v>
@@ -5940,19 +5940,19 @@
         <v>747100</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>738206</v>
+        <v>738327</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>753981</v>
+        <v>754391</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.9650746132707304</v>
+        <v>0.9650746132707302</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9535860433187134</v>
+        <v>0.953742365207387</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9739632679476885</v>
+        <v>0.9744928382283237</v>
       </c>
     </row>
     <row r="24">
@@ -6044,19 +6044,19 @@
         <v>44838</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>34224</v>
+        <v>33335</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>59425</v>
+        <v>59436</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01270540944365827</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.009697682073014939</v>
+        <v>0.009445945279275846</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.01683890325641329</v>
+        <v>0.01684194234977896</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>67</v>
@@ -6065,19 +6065,19 @@
         <v>38661</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>29827</v>
+        <v>30199</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>49855</v>
+        <v>50055</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.01036274605342874</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.007994894999724122</v>
+        <v>0.008094529620521167</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.01336317397680795</v>
+        <v>0.0134168526528634</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>126</v>
@@ -6086,19 +6086,19 @@
         <v>83499</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>69164</v>
+        <v>69377</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>99943</v>
+        <v>99287</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.01150153719810661</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.009526988193856027</v>
+        <v>0.009556331511637747</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.01376669724732113</v>
+        <v>0.01367628259453038</v>
       </c>
     </row>
     <row r="26">
@@ -6115,19 +6115,19 @@
         <v>3484220</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3469633</v>
+        <v>3469622</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3494834</v>
+        <v>3495723</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.9872945905563418</v>
+        <v>0.9872945905563417</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9831610967435865</v>
+        <v>0.9831580576502214</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9903023179269851</v>
+        <v>0.9905540547207241</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>5290</v>
@@ -6136,19 +6136,19 @@
         <v>3692080</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3680886</v>
+        <v>3680686</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3700914</v>
+        <v>3700542</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9896372539465712</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9866368260231917</v>
+        <v>0.9865831473471357</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9920051050002757</v>
+        <v>0.9919054703794786</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>8603</v>
@@ -6157,19 +6157,19 @@
         <v>7176300</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>7159856</v>
+        <v>7160512</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>7190635</v>
+        <v>7190422</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.9884984628018934</v>
+        <v>0.9884984628018932</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9862333027526781</v>
+        <v>0.9863237174054698</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.990473011806144</v>
+        <v>0.9904436684883617</v>
       </c>
     </row>
     <row r="27">
